--- a/Ocean/บอกล้าง/Design_Import_20200803.xlsx
+++ b/Ocean/บอกล้าง/Design_Import_20200803.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/my_app/Ocean/บอกล้าง/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310F6F8D-1F5B-744D-A6D7-351FEF4EA00A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6963E411-37FA-D84E-8180-CA994BAD126A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="1640" windowWidth="23260" windowHeight="12580" xr2:uid="{AEBCE46C-80C8-4172-849D-D292A5FEEDE3}"/>
+    <workbookView xWindow="40700" yWindow="1240" windowWidth="23260" windowHeight="12580" xr2:uid="{AEBCE46C-80C8-4172-849D-D292A5FEEDE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="2.2." sheetId="3" r:id="rId2"/>
-    <sheet name="Detail" sheetId="2" r:id="rId3"/>
+    <sheet name="Detail" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
   <si>
     <t>เลขที่กรมธรรม์</t>
   </si>
@@ -205,13 +204,13 @@
     <t>agent_branch_name</t>
   </si>
   <si>
-    <t>โดยหลังจากแสดงข้อมูลขึ้นที่หน้าเว็ปแล้ว user สามารถเปลี่ยน % นับผลงานได้ และ สถานะ กธ. ได้</t>
-  </si>
-  <si>
     <t>เมื่อ ทำการเปลียน % นับผลงาน  จะต้องทำการคำนวน เบี้ยนับผลงาน, เบี้ยนับผลงาน (รวม rider ) ใหม่</t>
   </si>
   <si>
     <t>โดย แถวที่่มีการเปลี่ยน แปลงค่าให้เปลี่ยนสี พื้น เป็นสีเหลือง และช่องที่เปลี่ยนค่า เปลี่ยน text เป็น สี แดง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">โดยหลังจากแสดงข้อมูลขึ้นที่หน้าเว็ปแล้ว user สามารถเปลี่ยน % นับผลงานได้ </t>
   </si>
 </sst>
 </file>
@@ -222,7 +221,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,14 +252,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -268,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,20 +290,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -335,26 +314,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -399,33 +365,14 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2052192B-6D39-499E-9D05-5BE9690B399F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1038,134 +985,134 @@
       <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="23" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="24"/>
     </row>
     <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="24"/>
     </row>
     <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="24" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1187,17 +1134,17 @@
     </row>
     <row r="39" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1258,156 +1205,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B6C8C6-34FF-824C-85DD-4CD2DD775394}">
-  <dimension ref="B2:C18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17.5" style="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="24"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F45477-A56F-4532-ABA8-B91212EC38DF}">
   <dimension ref="A1:R6"/>
   <sheetViews>

--- a/Ocean/บอกล้าง/Design_Import_20200803.xlsx
+++ b/Ocean/บอกล้าง/Design_Import_20200803.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/my_app/Ocean/บอกล้าง/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6963E411-37FA-D84E-8180-CA994BAD126A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BDF29E-76FE-AC4E-8297-F8FB229927B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40700" yWindow="1240" windowWidth="23260" windowHeight="12580" xr2:uid="{AEBCE46C-80C8-4172-849D-D292A5FEEDE3}"/>
+    <workbookView xWindow="40180" yWindow="5480" windowWidth="26640" windowHeight="12580" xr2:uid="{AEBCE46C-80C8-4172-849D-D292A5FEEDE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Detail" sheetId="2" r:id="rId2"/>
+    <sheet name="ตัวอย่างหน้าเว็ป" sheetId="3" r:id="rId2"/>
+    <sheet name="Detail" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
   <si>
     <t>เลขที่กรมธรรม์</t>
   </si>
@@ -138,24 +139,12 @@
     <t>Import  จะเปลี่ยน การทำงานเป็นแบบใหม่</t>
   </si>
   <si>
-    <t xml:space="preserve">1. เราจะเอาข้อมูลจาก excel  แค่ column A ที่เป็นเลข กธ. เท่านั้น </t>
-  </si>
-  <si>
     <t>2.  ทำการ load ข้อมูล กธ. จาก db.</t>
   </si>
   <si>
-    <t xml:space="preserve">     2.1. กรณีมีข้อมูลอยู่ที่ tx_policy_free_look_detail และมีสถานะเป็น active</t>
-  </si>
-  <si>
     <t xml:space="preserve">          ทำการ load ข้อมูลขั้นมาแสดงที่หน้าเว็ป</t>
   </si>
   <si>
-    <t xml:space="preserve">    2.2. กรณีไม่มีข้อมูลที่ tx_policy_free_look_detail แต่มีข้อมูล กธ. ที่ ms_policy_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     2.3. กรณีที่ไม่มีข้อมูลทั้งใน tx_policy_free_look_detail และ ms_policy_list </t>
-  </si>
-  <si>
     <t xml:space="preserve">         ให้ขึ้นแจ้งเตือน ว่า policy(error)</t>
   </si>
   <si>
@@ -204,13 +193,112 @@
     <t>agent_branch_name</t>
   </si>
   <si>
-    <t>เมื่อ ทำการเปลียน % นับผลงาน  จะต้องทำการคำนวน เบี้ยนับผลงาน, เบี้ยนับผลงาน (รวม rider ) ใหม่</t>
-  </si>
-  <si>
-    <t>โดย แถวที่่มีการเปลี่ยน แปลงค่าให้เปลี่ยนสี พื้น เป็นสีเหลือง และช่องที่เปลี่ยนค่า เปลี่ยน text เป็น สี แดง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">โดยหลังจากแสดงข้อมูลขึ้นที่หน้าเว็ปแล้ว user สามารถเปลี่ยน % นับผลงานได้ </t>
+    <t>% นับผลงาน
+จากระบบ</t>
+  </si>
+  <si>
+    <t>% นับผลงาน
+จาก excel</t>
+  </si>
+  <si>
+    <t>เบี้ยนับผลงาน
+จากระบบ</t>
+  </si>
+  <si>
+    <t>เบี้ยนับผลงาน
+จาก excel</t>
+  </si>
+  <si>
+    <t>เบี้ยประกัน rider
+จากระบบ</t>
+  </si>
+  <si>
+    <t>เบี้ยประกัน rider
+จาก excel</t>
+  </si>
+  <si>
+    <t>เบี้ยนับผลงาน (รวม rider)
+จากระบบ</t>
+  </si>
+  <si>
+    <t>เบี้ยนับผลงาน (รวม rider)
+จาก excel</t>
+  </si>
+  <si>
+    <t>% นับผลงาน จากระบบ</t>
+  </si>
+  <si>
+    <t>เบี้ยนับผลงาน จากระบบ</t>
+  </si>
+  <si>
+    <t>เบี้ยประกัน rider จากระบบ</t>
+  </si>
+  <si>
+    <t>เบี้ยนับผลงาน (รวม rider) จากระบบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. เราจะเอาข้อมูลจาก excel  แค่ column A ที่เป็นเลข กธ. กับ column D ที่เป็น % นับผลงาน เท่านั้น </t>
+  </si>
+  <si>
+    <t>3. รายละเอียดการคำนวน</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> %นับผลงาน จาก Excel</t>
+  </si>
+  <si>
+    <t>column D ใน excel</t>
+  </si>
+  <si>
+    <t>เบียนับผลงาน จาก Excel</t>
+  </si>
+  <si>
+    <t>เบียประกัน rider จาก Excel</t>
+  </si>
+  <si>
+    <t>เบี้ยนับผลงาน (รวม rider) จากExcel</t>
+  </si>
+  <si>
+    <t>เบียประกัน * (%นับผลงาน จาก excel  /100)</t>
+  </si>
+  <si>
+    <t>เบี้ยประกัน rider จากระบบ* (%นับผลงาน จาก excel /100)</t>
+  </si>
+  <si>
+    <t>เบียประกัน * (%นับผลงาน จาก excel /100) +
+เบี้ยประกัน rider จากระบบ* (%นับผลงาน จาก excel /100)</t>
+  </si>
+  <si>
+    <t>ช่องที่แสดงข้อมูลตารางด้านบน ให้ใส่สีพื้น เป็น สีเหลือง</t>
+  </si>
+  <si>
+    <t>ปล. ถ้าค่าใน excel column D (% นับผลงาน) มีค่าเป็น % ให้แปลง % เป็นค่า ปกติ ก่อนนำมาแสดงที่หน้าเว็ป เช่น 10% ต้องแปลงเป็น 10 ก่อน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1. หาข้อมูล กธ. ที่ ms_policy_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.3. กรณีที่ไม่มีข้อมูลทั้งใน ms_policy_list </t>
+  </si>
+  <si>
+    <t>4. ถ้ามีอย่างน้อย 1 รายการที่ยอด %นับผลงาน จาก excel กับ % นับผลงาน จาก ระบบ ไม่ตรงกัน</t>
+  </si>
+  <si>
+    <t>หรือ เบียนับผลงาน จากระบบ ไม่ตรง กับ เบียนับผลงาน จาก excel</t>
+  </si>
+  <si>
+    <t>หรือ เบีย rider จากระบบ ไม่ตรงกับ เบีย rider จาก excel</t>
+  </si>
+  <si>
+    <t>ตอนที่กด บันทึก ให้มีการแสดง dialog ยืนยัน ว่า คุณต้องการบันทึกข้อมูล</t>
+  </si>
+  <si>
+    <t>ถ้ายืนยัน ให้ทำการบันทึก ลง DB ได้เลย</t>
   </si>
 </sst>
 </file>
@@ -259,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,8 +378,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -314,13 +408,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -374,6 +511,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -392,6 +552,75 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>439614</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1015999</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>185616</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Curved Left Arrow 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95592EAB-4108-654F-8BA5-0ECCDB3F7477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="439614" y="8137769"/>
+          <a:ext cx="576385" cy="898770"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedLeftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -691,17 +920,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2052192B-6D39-499E-9D05-5BE9690B399F}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -953,208 +1182,229 @@
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
+      <c r="B17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>43</v>
+      <c r="B19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="22" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="25" t="s">
-        <v>32</v>
+      <c r="B21" s="22" t="s">
+        <v>3</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="22" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="22" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="22" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>51</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>52</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C29" s="24"/>
     </row>
     <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>54</v>
-      </c>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>55</v>
+      <c r="B34" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="9"/>
+      <c r="B35" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="9"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="39" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="9" t="s">
-        <v>58</v>
+      <c r="B39" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="9" t="s">
-        <v>56</v>
+      <c r="B40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="9"/>
+      <c r="B41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="43" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="9"/>
+      <c r="B43" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="44" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="9"/>
+      <c r="B44" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="45" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
@@ -1163,19 +1413,29 @@
       <c r="B46" s="9"/>
     </row>
     <row r="47" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="9"/>
+      <c r="B47" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="48" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="9"/>
+      <c r="B48" s="9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="9"/>
+      <c r="B49" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="9"/>
+      <c r="B50" s="9" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="9"/>
+      <c r="B51" s="9" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="9"/>
@@ -1197,14 +1457,227 @@
     </row>
     <row r="58" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD0221C-CB47-D140-8905-9D046F1637BD}">
+  <dimension ref="B4:V6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:22" ht="30" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3000000</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2964000</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2964000</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2964000</v>
+      </c>
+      <c r="L5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N5" s="6">
+        <f>J5+L5</f>
+        <v>2974000</v>
+      </c>
+      <c r="O5" s="6">
+        <f>K5+M5</f>
+        <v>2974000</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="4">
+        <v>5503055</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3000000</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2964000</v>
+      </c>
+      <c r="J6" s="6">
+        <f>I6*E6</f>
+        <v>296400</v>
+      </c>
+      <c r="K6" s="6">
+        <f>I6*(F6)</f>
+        <v>148200</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="7">
+        <v>500</v>
+      </c>
+      <c r="N6" s="6">
+        <f>J6+L6</f>
+        <v>297400</v>
+      </c>
+      <c r="O6" s="6">
+        <f>K6+M6</f>
+        <v>148700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F45477-A56F-4532-ABA8-B91212EC38DF}">
   <dimension ref="A1:R6"/>
   <sheetViews>
